--- a/BlackLung_Dashboard/blacklung_crosswalk.xlsx
+++ b/BlackLung_Dashboard/blacklung_crosswalk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Summit\DOL ADRA\DOL_ADRA_BlackLung\BlackLung_Dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF54DBA4-27A8-4B73-B76C-9F3D8B2F541D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED98ADB0-9CFA-49D6-8EA5-B2A21C991BB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="660" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{62AC56FD-1801-4442-89C9-C7A6796C2B2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -296,12 +296,6 @@
     <t>Cummulative Black Lung Cases (1970-2014)</t>
   </si>
   <si>
-    <t>Underground Mine Black Lung Cases (1970-2014)</t>
-  </si>
-  <si>
-    <t>Surface Mine Black Lung Cases (1970-2014)</t>
-  </si>
-  <si>
     <t>Underground Mine Black Lung Cases per 1000 People (1970-2014)</t>
   </si>
   <si>
@@ -323,9 +317,6 @@
     <t>any_cwp_per1000</t>
   </si>
   <si>
-    <t>Total Black Lung Cases per 1000 People (1970-2014)</t>
-  </si>
-  <si>
     <t>prop_severe_cwp_undrgrnd</t>
   </si>
   <si>
@@ -338,9 +329,6 @@
     <t>Proportion of Cases that have Complications (PMF) (1970-2014)</t>
   </si>
   <si>
-    <t>Black Lung Deaths</t>
-  </si>
-  <si>
     <t>total_black_lung_deaths</t>
   </si>
   <si>
@@ -368,31 +356,43 @@
     <t>Coal Miner's Pneumoconiosis Severe (PMF)</t>
   </si>
   <si>
-    <t>Black Lung Deaths per 1000 People</t>
-  </si>
-  <si>
     <t>total_black_lung_deaths_per1000</t>
   </si>
   <si>
     <t>total_cwp_deaths_per1000</t>
   </si>
   <si>
-    <t>Predicted Black Lung Cases</t>
-  </si>
-  <si>
     <t>predict_any_cwp</t>
   </si>
   <si>
     <t>predict_cwppmf</t>
   </si>
   <si>
-    <t>Predicted Black Lung Deaths</t>
-  </si>
-  <si>
     <t>predict_black_lung_deaths</t>
   </si>
   <si>
     <t>predict_j60_deaths</t>
+  </si>
+  <si>
+    <t>Cummulative Black Lung Deaths (1999-2020)</t>
+  </si>
+  <si>
+    <t>Cummulative Black Lung Deaths per 1000 People (1999-2020)</t>
+  </si>
+  <si>
+    <t>Cummulative Black Lung Cases per 1000 People (1970-2014)</t>
+  </si>
+  <si>
+    <t>Cummulative Predicted Black Lung Cases (1970-2014)</t>
+  </si>
+  <si>
+    <t>Cummulative Predicted Black Lung Deaths (1999-2020)</t>
+  </si>
+  <si>
+    <t>Cummulative Underground Mine Black Lung Cases (1970-2014)</t>
+  </si>
+  <si>
+    <t>Cummulative Surface Mine Black Lung Cases (1970-2014)</t>
   </si>
 </sst>
 </file>
@@ -752,18 +752,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50075B1A-BDA0-4AF0-8C2E-B48985C11EE2}">
   <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.42578125" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" customWidth="1"/>
+    <col min="1" max="1" width="59.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.453125" customWidth="1"/>
+    <col min="3" max="3" width="38.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -774,117 +774,117 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -895,7 +895,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -906,7 +906,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>59</v>
       </c>
@@ -917,7 +917,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -928,7 +928,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -950,7 +950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -961,7 +961,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -972,7 +972,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -983,7 +983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -994,7 +994,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>38</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1082,7 +1082,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -1115,7 +1115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>50</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>50</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -1192,7 +1192,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -1203,7 +1203,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>66</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>66</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>66</v>
       </c>
@@ -1247,345 +1247,345 @@
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C45" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C46" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C47" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C50" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C51" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C52" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C53" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>85</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C55" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C56" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>85</v>
       </c>
       <c r="B57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>85</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C59" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B60" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B64" t="s">
         <v>105</v>
       </c>
-      <c r="C60" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>95</v>
-      </c>
-      <c r="B61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>95</v>
-      </c>
-      <c r="B62" t="s">
-        <v>107</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="C64" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" t="s">
-        <v>108</v>
-      </c>
-      <c r="C63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
       </c>
       <c r="C65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>96</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>99</v>
       </c>
       <c r="B66" t="s">
         <v>28</v>
       </c>
       <c r="C66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>30</v>
       </c>
       <c r="C67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>112</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>113</v>
+      </c>
+      <c r="B70" t="s">
+        <v>99</v>
+      </c>
+      <c r="C70" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="C71" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>115</v>
+      </c>
+      <c r="B72" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="B69" t="s">
-        <v>104</v>
-      </c>
-      <c r="C69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>110</v>
-      </c>
-      <c r="B70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C70" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>110</v>
-      </c>
-      <c r="B71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>113</v>
-      </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73" t="s">
         <v>105</v>
       </c>
-      <c r="C72" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>113</v>
-      </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>109</v>
       </c>
-      <c r="C73" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>116</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
